--- a/rails研修修了テストについて-2.xlsx
+++ b/rails研修修了テストについて-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="4540" windowWidth="24940" windowHeight="14060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="160" windowWidth="25840" windowHeight="16200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求と手順" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
   <si>
     <t>scaffold時に生成したコードをwithout scaffoldで参考にする際はコピペしないこと！！写経はOK</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>/my_threads/:thread_id/comments/new</t>
-  </si>
-  <si>
-    <t>form_for([@my_thread, @comment])</t>
   </si>
   <si>
     <t>ネストしたリソースに対するform_forの使い方
@@ -250,26 +247,6 @@
     <t>rails g devise user</t>
   </si>
   <si>
-    <t>rails g migration AddNameToUsers name:string</t>
-  </si>
-  <si>
-    <t>/users/sign_up</t>
-  </si>
-  <si>
-    <t>ユーザ作成ブラウザで開く(エラー：サーバーを再起動)　Model・Controller はdeviseが自動的に作っている。</t>
-  </si>
-  <si>
-    <t>before_action :authenticate_user!</t>
-  </si>
-  <si>
-    <t>リンクをつけてログアウトもできるようにする(deleteメソッドのaタグを作ることに注意、app/view/layout に書き込む)</t>
-  </si>
-  <si>
-    <t>動作の確認
-（ログインせずにurl叩いてもサインイン画面に飛ばされるか？
-ログインしていればちゃんと表示されるか？）</t>
-  </si>
-  <si>
     <t>ブログ</t>
   </si>
   <si>
@@ -417,20 +394,6 @@
   </si>
   <si>
     <t>/my_threads/:id/edit</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>app/controller/application_controller.rb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>にセッション管理を追加</t>
-    </r>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -527,6 +490,433 @@
     <rPh sb="39" eb="41">
       <t>ケイシキ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>form_for([@my_thread, @comment])</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>rake db:migrate</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>rails g migration AddNameToUsers name:string</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>ユーザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>ブラウザで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>エラー：サーバーを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>再起動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Controller </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>devise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>自動的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>っている。</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>/users/sign_up</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>動作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>（ログインせずに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>叩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>いてもサインイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>飛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>ばされるか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>ログインしていればちゃんと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>されるか？）</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>app/controller/application_controller.rb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にセッション管理を追加</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>before_action :authenticate_user!</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>Application helper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に入れる</t>
+    </r>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>リンクをつけてログアウトもできるようにする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>メソッドの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>タグを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>ることに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">app/view/layout </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JNR-SB-Font"/>
+      </rPr>
+      <t>込</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="imagine YOKOHAMA"/>
+      </rPr>
+      <t>む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -644,7 +1034,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -661,8 +1051,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -686,8 +1085,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="25">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -704,6 +1107,15 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2338,7 +2750,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  t.string :title</a:t>
+            <a:t>  t.string :text</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2349,7 +2761,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  t.string :text</a:t>
+            <a:t>  t.integer :user_id  ※2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2459,7 +2871,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  t.integer :id </a:t>
+            <a:t>  t.integer :id  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3221,13 +3649,13 @@
   </sheetPr>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
@@ -3450,7 +3878,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -3468,7 +3896,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3697,7 +4125,7 @@
     <row r="48" spans="1:5" ht="14">
       <c r="A48" s="3"/>
       <c r="B48" s="18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
@@ -3718,7 +4146,7 @@
     </row>
     <row r="50" spans="1:26" ht="12">
       <c r="A50" s="3"/>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3731,16 +4159,16 @@
     </row>
     <row r="51" spans="1:26" ht="14">
       <c r="A51" s="13"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:26" ht="12">
       <c r="A52" s="13"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="21" t="s">
         <v>22</v>
       </c>
@@ -3751,10 +4179,10 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -3840,7 +4268,7 @@
     </row>
     <row r="62" spans="1:26" ht="12">
       <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3858,10 +4286,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="Z63" s="3"/>
     </row>
@@ -3869,10 +4297,10 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -3880,7 +4308,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3889,7 +4317,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3898,7 +4326,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3906,21 +4334,23 @@
     <row r="68" spans="1:26" ht="21">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:26" ht="12">
+    <row r="69" spans="1:26" ht="14">
       <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="12">
@@ -3932,7 +4362,7 @@
     <row r="71" spans="1:26" ht="12">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3940,7 +4370,7 @@
     <row r="72" spans="1:26" ht="12">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3956,7 +4386,7 @@
     <row r="74" spans="1:26" ht="12">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3964,46 +4394,46 @@
     <row r="75" spans="1:26" ht="12">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="12">
+    <row r="76" spans="1:26" ht="21">
       <c r="A76" s="3"/>
       <c r="B76" s="20" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="14">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D77" s="14" t="str">
         <f>HYPERLINK("http://easyramble.com/devise-on-rails.html","参考")</f>
         <v>参考</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="12">
+    <row r="78" spans="1:26" ht="21">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="12">
+    <row r="79" spans="1:26" ht="84">
       <c r="A79" s="15"/>
-      <c r="B79" s="15" t="s">
-        <v>79</v>
+      <c r="B79" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -4032,7 +4462,7 @@
     </row>
     <row r="80" spans="1:26" ht="12">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4040,10 +4470,10 @@
     </row>
     <row r="81" spans="1:4" ht="12">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>41</v>
@@ -4056,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D82" s="3"/>
     </row>
@@ -4070,13 +4500,13 @@
     </row>
     <row r="84" spans="1:4" ht="12">
       <c r="A84" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D84" s="3"/>
     </row>
@@ -4086,26 +4516,26 @@
         <v>22</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" ht="12">
       <c r="A86" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="12">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4113,17 +4543,17 @@
     <row r="88" spans="1:4" ht="12">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" ht="12">
       <c r="A89" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4139,17 +4569,17 @@
     <row r="91" spans="1:4" ht="12">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" ht="12">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4157,7 +4587,7 @@
     <row r="93" spans="1:4" ht="12">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C93" s="17" t="str">
         <f>HYPERLINK("http://techracho.bpsinc.jp/baba/2011_11_26/4723","参考")</f>
@@ -4167,22 +4597,22 @@
     </row>
     <row r="94" spans="1:4" ht="12">
       <c r="A94" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4190,7 +4620,7 @@
     <row r="96" spans="1:4" ht="12">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4198,44 +4628,44 @@
     <row r="97" spans="1:4" ht="12">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" ht="12">
       <c r="A98" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" ht="12">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" ht="12">
       <c r="A100" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" ht="12">
       <c r="A101" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4243,7 +4673,7 @@
     </row>
     <row r="102" spans="1:4" ht="12">
       <c r="A102" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4251,7 +4681,7 @@
     </row>
     <row r="103" spans="1:4" ht="12">
       <c r="A103" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
@@ -4259,11 +4689,11 @@
     </row>
     <row r="104" spans="1:4" ht="12">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D104" s="14" t="str">
         <f>HYPERLINK("http://www.workabroad.jp/tech/1118","参考")</f>
@@ -4272,10 +4702,10 @@
     </row>
     <row r="105" spans="1:4" ht="12">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4283,7 +4713,7 @@
     <row r="106" spans="1:4" ht="12">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4291,18 +4721,18 @@
     <row r="107" spans="1:4" ht="12">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" ht="12">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D108" s="3"/>
     </row>
@@ -4320,10 +4750,10 @@
     </row>
     <row r="111" spans="1:4" ht="12">
       <c r="A111" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4331,7 +4761,7 @@
     <row r="112" spans="1:4" ht="12">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4346,7 +4776,7 @@
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" scale="24" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4360,7 +4790,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4389,7 +4819,7 @@
   <sheetData>
     <row r="11" spans="3:3" ht="16">
       <c r="C11" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/rails研修修了テストについて-2.xlsx
+++ b/rails研修修了テストについて-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="160" windowWidth="25840" windowHeight="16200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="3580" windowWidth="25840" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="要求と手順" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
   <si>
     <t>scaffold時に生成したコードをwithout scaffoldで参考にする際はコピペしないこと！！写経はOK</t>
   </si>
@@ -917,6 +917,10 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>;9999</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -3649,8 +3653,8 @@
   </sheetPr>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4787,14 +4791,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="43" spans="10:10">
+      <c r="J43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
